--- a/assets/sp_cetesb_infoaguas/excel/QUIL03030.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/QUIL03030.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,13 +532,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>184.00000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,13 +558,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37.00000000</t>
+          <t>168.00000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -584,18 +584,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -610,18 +610,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.10000000</t>
+          <t>8.90000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -636,18 +636,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.90000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -662,13 +662,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.90000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -688,18 +688,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>304.00000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -714,18 +714,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>23.10000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -766,13 +766,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -792,13 +792,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.24000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -818,13 +818,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>168.00000000</t>
+          <t>37.00000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -844,13 +844,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -870,18 +870,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.00000000</t>
+          <t>410000.00000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -926,18 +922,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>0.90000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -952,18 +948,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>304.00000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -978,18 +978,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1004,18 +1004,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1030,13 +1030,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.50000000</t>
+          <t>0.24000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1082,18 +1082,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>184.00000000</t>
+          <t>20.00000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1108,18 +1108,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>410000.00000000</t>
+          <t>10.50000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1134,18 +1134,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>29.20000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1160,18 +1160,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>155.00000000</t>
+          <t>3.40000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1186,13 +1186,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1212,13 +1212,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>96.00000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1238,18 +1238,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1264,13 +1264,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>0.82000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1290,13 +1290,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1316,18 +1316,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>155.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.82000000</t>
+          <t>8.90000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1368,18 +1368,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>29.20000000</t>
+          <t>65.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1394,13 +1394,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1420,18 +1420,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.40000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1446,18 +1446,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.30000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1472,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1502,13 +1498,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>142.00000000</t>
+          <t>8.90000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1528,18 +1524,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.90000000</t>
+          <t>24.20000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1554,18 +1550,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>91000.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1580,18 +1576,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>65.00000000</t>
+          <t>142.00000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1606,13 +1602,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>96.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1632,18 +1628,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>91000.00000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1658,18 +1654,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1684,18 +1684,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24.20000000</t>
+          <t>4.30000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1736,13 +1736,13 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8.90000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1762,18 +1762,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1814,13 +1814,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1840,18 +1840,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>444.00000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1866,13 +1866,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>96.00000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1892,18 +1892,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>25.20000000</t>
+          <t>9.40000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1918,18 +1918,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>444.00000000</t>
+          <t>96.00000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1944,18 +1944,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>670000.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1970,13 +1974,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.61000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -1996,18 +2000,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>41.00000000</t>
+          <t>670000.00000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2022,13 +2026,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.61000000</t>
+          <t>41.00000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2048,13 +2052,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>25.70000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2074,18 +2078,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2100,13 +2104,13 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>43.30000000</t>
+          <t>15.00000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2126,13 +2130,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2152,18 +2156,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2178,18 +2182,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17.40000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2204,18 +2208,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20.70000000</t>
+          <t>302.00000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2230,18 +2234,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>292.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2256,22 +2260,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>292.00000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2312,13 +2312,13 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>25.70000000</t>
+          <t>43.30000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2338,18 +2338,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>20.70000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2364,18 +2364,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>302.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2390,13 +2390,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9.40000000</t>
+          <t>17.40000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2416,18 +2416,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>25.20000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2442,13 +2442,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>354.00000000</t>
+          <t>157.00000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2468,18 +2468,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2100000.00000000</t>
+          <t>68.00000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2494,13 +2494,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>41.10000000</t>
+          <t>354.00000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2520,18 +2520,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>7.60000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2546,13 +2546,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.59000000</t>
+          <t>16.40000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2572,13 +2572,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>409.00000000</t>
+          <t>28.00000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2598,18 +2598,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>157.00000000</t>
+          <t>2100000.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2624,18 +2624,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>92.70000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2676,13 +2676,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>16.40000000</t>
+          <t>409.00000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2702,13 +2702,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>42.60000000</t>
+          <t>2.95000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2728,13 +2728,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2754,18 +2754,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>17.30000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2780,18 +2780,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>28.00000000</t>
+          <t>17.30000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2806,18 +2806,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2832,18 +2832,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>718.00000000</t>
+          <t>0.59000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2858,18 +2858,18 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7.60000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2884,18 +2884,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>718.00000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2910,13 +2910,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>42.60000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2936,18 +2936,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>26.10000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2962,18 +2962,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>26.10000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2988,18 +2988,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3014,13 +3014,13 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>68.00000000</t>
+          <t>41.10000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3040,13 +3040,13 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2.95000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3066,13 +3066,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>92.70000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3092,18 +3092,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>1800000.00000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3118,13 +3118,13 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>364.00000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3144,18 +3144,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3170,18 +3170,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>20.70000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3196,18 +3196,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>20.70000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3222,13 +3222,13 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>315.00000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3248,13 +3248,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>24.40000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3378,13 +3378,13 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>34.70000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3404,18 +3404,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>34.70000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3430,13 +3430,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>364.00000000</t>
+          <t>152.00000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3456,13 +3456,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>24.40000000</t>
+          <t>63.60000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3482,18 +3482,18 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3508,18 +3508,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1800000.00000000</t>
+          <t>45.00000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3534,18 +3534,18 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>675.00000000</t>
+          <t>315.00000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3560,18 +3560,18 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>63.60000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3586,13 +3586,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>75.00000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3638,18 +3638,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>152.00000000</t>
+          <t>675.00000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3664,18 +3664,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3690,18 +3690,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>75.00000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3716,18 +3716,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>45.00000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3742,18 +3742,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.42000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3768,13 +3768,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3794,13 +3794,13 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>45.80000000</t>
+          <t>0.42000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3820,18 +3820,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>23.50000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3846,18 +3846,18 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>29.90000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3872,13 +3872,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.71000000</t>
+          <t>19.30000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3898,13 +3898,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -3924,18 +3924,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3950,13 +3950,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>19.30000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -3976,18 +3976,18 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>351.00000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4002,13 +4002,13 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>56.00000000</t>
+          <t>255.00000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4054,18 +4054,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>255.00000000</t>
+          <t>23.50000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4080,18 +4080,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>29.90000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4106,13 +4106,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Dissolvido</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>16.00000000</t>
+          <t>0.71000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4132,13 +4132,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>45.80000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4158,13 +4158,13 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4184,18 +4184,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Carbono Orgânico Dissolvido</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>16.00000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4210,18 +4210,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>549.00000000</t>
+          <t>56.00000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4236,18 +4236,18 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4262,18 +4262,18 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>3500000.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4314,18 +4314,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>351.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4340,18 +4340,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>3500000.00000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4366,18 +4366,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>549.00000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4392,18 +4392,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1.30000000</t>
+          <t>200000.00000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4418,18 +4418,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>293.00000000</t>
+          <t>25.50000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4444,18 +4444,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>6.80000000</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4470,13 +4470,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>22.40000000</t>
+          <t>159.00000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4496,18 +4496,18 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4522,13 +4522,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0.24000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4548,13 +4548,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4574,13 +4574,13 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -4600,13 +4600,13 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>0.24000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -4626,13 +4626,13 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.28000000</t>
+          <t>29.00000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -4652,18 +4652,18 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>30.00000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4678,18 +4678,18 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>9.10000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4704,18 +4704,18 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>30.00000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4730,13 +4730,13 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>9.10000000</t>
+          <t>0.28000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -4756,13 +4756,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>138.00000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -4782,18 +4782,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>200000.00000000</t>
+          <t>293.00000000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4808,18 +4808,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>25.50000000</t>
+          <t>1.30000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4834,13 +4834,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>21.60000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -4860,18 +4864,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4886,13 +4890,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>29.00000000</t>
+          <t>22.40000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -4912,22 +4916,18 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4942,13 +4942,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>138.00000000</t>
+          <t>21.60000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -4968,18 +4968,18 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>6.80000000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4994,18 +4994,18 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>159.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5020,18 +5020,18 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>25.20000000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5046,18 +5046,18 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>25.20000000</t>
+          <t>14.40000000</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5072,18 +5072,18 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>14.40000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5098,13 +5098,13 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>0.62000000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5124,13 +5124,13 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5.13000000</t>
+          <t>3.30000000</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5150,18 +5150,18 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>226.00000000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5176,18 +5176,18 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>226.00000000</t>
+          <t>148.00000000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5202,18 +5202,18 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>34000.00000000</t>
+          <t>5.13000000</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5228,17 +5228,13 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5284,13 +5280,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>148.00000000</t>
+          <t>0.59000000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5340,13 +5336,13 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>8.70000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -5366,18 +5362,18 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>11.10000000</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5392,18 +5388,18 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>0.62000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5418,13 +5414,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>11.10000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -5444,18 +5444,18 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>0.42000000</t>
+          <t>30.20000000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5470,13 +5470,13 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.59000000</t>
+          <t>0.42000000</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -5496,18 +5496,18 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>6.50000000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -5522,18 +5522,18 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -5548,13 +5548,13 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>3.30000000</t>
+          <t>8.70000000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -5574,18 +5574,18 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5600,18 +5600,18 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6.50000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5626,18 +5626,18 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>30.20000000</t>
+          <t>34000.00000000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5652,13 +5652,13 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>11.00000000</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -5678,18 +5678,18 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>212.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5704,13 +5704,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>28.50000000</t>
+          <t>0.00400000</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -5730,13 +5730,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>11.20000000</t>
+          <t>28.50000000</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -5756,18 +5756,18 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5782,18 +5782,18 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>180.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5808,18 +5808,18 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>6.80000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5834,13 +5834,13 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -5860,13 +5860,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>13.30000000</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -5886,18 +5886,18 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>12.20000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5912,18 +5912,18 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>13.30000000</t>
+          <t>350000.00000000</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5938,13 +5938,13 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>0.26000000</t>
+          <t>212.00000000</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -5964,18 +5964,18 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>15.00000000</t>
+          <t>12.20000000</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5990,18 +5990,18 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>23.50000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6016,13 +6016,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>180.00000000</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -6042,18 +6042,18 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>350000.00000000</t>
+          <t>0.26000000</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6068,13 +6068,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>DQO</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>0.00400000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -6094,18 +6098,18 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>349.00000000</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6120,18 +6124,18 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>15.00000000</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -6146,17 +6150,13 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DQO</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -6176,18 +6176,18 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>349.00000000</t>
+          <t>11.60000000</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6202,18 +6202,18 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>11.00000000</t>
+          <t>23.50000000</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>11.60000000</t>
+          <t>11.20000000</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -6254,18 +6254,18 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>6.80000000</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -6280,18 +6280,18 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>22.70000000</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6306,18 +6306,18 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>0.27000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6332,13 +6332,13 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>0.27000000</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -6358,18 +6358,18 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>378.00000000</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6384,18 +6384,18 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>19.20000000</t>
+          <t>238.00000000</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6410,18 +6410,18 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6436,18 +6436,18 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>22.70000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -6462,13 +6462,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>238.00000000</t>
+          <t>15.60000000</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -6488,18 +6488,18 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>28.00000000</t>
+          <t>16.90000000</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6514,13 +6514,13 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>1.40000000</t>
+          <t>52.00000000</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -6540,13 +6540,13 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -6566,18 +6566,18 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>14.50000000</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6592,18 +6592,18 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>15.60000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -6618,18 +6618,18 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>378.00000000</t>
+          <t>420000.00000000</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -6644,13 +6644,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>210.00000000</t>
+          <t>28.00000000</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -6670,13 +6670,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -6696,18 +6696,18 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>14.50000000</t>
+          <t>19.20000000</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6722,18 +6722,18 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>420000.00000000</t>
+          <t>35.00000000</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6748,18 +6748,18 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>16.90000000</t>
+          <t>16.50000000</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6774,13 +6774,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>52.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -6800,18 +6800,18 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6826,18 +6826,18 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>1.40000000</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6852,13 +6852,13 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>16.50000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -6878,13 +6878,13 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>35.00000000</t>
+          <t>210.00000000</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -6904,13 +6904,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>338.00000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -6930,18 +6930,18 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>148.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6956,18 +6956,18 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>33.00000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6982,13 +6982,13 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>0.41000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -7008,13 +7008,13 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>299.00000000</t>
+          <t>49.80000000</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7034,18 +7034,18 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>40.00000000</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7060,18 +7060,18 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>2500000.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7086,18 +7086,18 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>65.00000000</t>
+          <t>23.20000000</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7112,13 +7112,13 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>148.00000000</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -7138,18 +7138,18 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>23.20000000</t>
+          <t>1.08000000</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7164,13 +7164,13 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>12.00000000</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -7190,18 +7190,18 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>65.00000000</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7216,18 +7216,18 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>12.00000000</t>
+          <t>33.00000000</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7242,13 +7242,13 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -7268,18 +7268,18 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>558.00000000</t>
+          <t>299.00000000</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7294,13 +7294,13 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -7346,18 +7346,18 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>40.00000000</t>
+          <t>2500000.00000000</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -7372,13 +7372,13 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>1.08000000</t>
+          <t>41.70000000</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -7398,13 +7398,13 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7424,18 +7424,18 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>558.00000000</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -7450,18 +7450,18 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>49.80000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -7476,18 +7476,18 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.41000000</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7502,13 +7502,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>41.70000000</t>
+          <t>338.00000000</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7528,18 +7528,18 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>31.20000000</t>
+          <t>332.00000000</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7554,13 +7554,13 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>25.40000000</t>
+          <t>31.20000000</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -7580,18 +7580,18 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7606,18 +7606,18 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>59.00000000</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7632,13 +7632,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>332.00000000</t>
+          <t>23.90000000</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -7658,18 +7658,18 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>1.08000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7684,18 +7684,18 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>630.00000000</t>
+          <t>265.00000000</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7710,18 +7710,18 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>25.40000000</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7736,13 +7736,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>34.60000000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -7762,18 +7762,18 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>5100000.00000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7788,13 +7788,13 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>109.00000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -7814,13 +7814,13 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -7840,18 +7840,18 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>46.00000000</t>
+          <t>630.00000000</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -7866,13 +7866,13 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>1.08000000</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -7892,18 +7892,18 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7918,13 +7918,13 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -7944,13 +7944,13 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>109.00000000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -7970,13 +7970,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>23.90000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -7996,13 +7996,13 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>46.00000000</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -8022,18 +8022,18 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>59.00000000</t>
+          <t>5100000.00000000</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8048,18 +8048,18 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>265.00000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -8074,18 +8074,18 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8100,13 +8100,13 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>34.60000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -8126,18 +8126,18 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8152,18 +8152,18 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>30.20000000</t>
+          <t>41.10000000</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8178,17 +8178,13 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>276.00000000</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -8208,18 +8204,18 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>2700000.00000000</t>
+          <t>481.00000000</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -8234,13 +8230,13 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
-          <t>31.70000000</t>
+          <t>46.00000000</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -8260,18 +8256,18 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8286,13 +8282,13 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>46.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -8312,18 +8308,18 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>45.00000000</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -8338,18 +8334,18 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
-          <t>481.00000000</t>
+          <t>0.79000000</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8364,13 +8360,13 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>DQO</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>41.10000000</t>
+          <t>86.00000000</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -8390,18 +8386,18 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
-          <t>45.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8416,18 +8412,18 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DQO</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
-          <t>86.00000000</t>
+          <t>30.20000000</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8442,18 +8438,18 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
-          <t>230.00000000</t>
+          <t>2700000.00000000</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8494,18 +8490,18 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>25.70000000</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8520,13 +8516,13 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>31.70000000</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -8546,13 +8542,17 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -8572,18 +8572,18 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
-          <t>25.70000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8598,13 +8598,13 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>230.00000000</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -8624,13 +8624,13 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
         <is>
-          <t>276.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -8650,18 +8650,18 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8676,18 +8676,18 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8702,18 +8702,18 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
-          <t>20.50000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -8728,13 +8728,13 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -8754,13 +8754,13 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
-          <t>0.79000000</t>
+          <t>20.50000000</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -8780,18 +8780,18 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>29.70000000</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8806,13 +8806,13 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
-          <t>27.90000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -8832,18 +8832,22 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8858,18 +8862,18 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
-          <t>255.00000000</t>
+          <t>3100000.00000000</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8884,18 +8888,18 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
-          <t>51.50000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8910,13 +8914,13 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>40.10000000</t>
+          <t>0.24000000</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -8936,17 +8940,13 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>27.90000000</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -8966,18 +8966,18 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8992,18 +8992,18 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
-          <t>226.00000000</t>
+          <t>24.70000000</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -9018,13 +9018,13 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fenóis Totais</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -9044,13 +9044,13 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>51.50000000</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -9070,13 +9070,13 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -9096,18 +9096,18 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
-          <t>455.00000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -9122,13 +9122,13 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
-          <t>18.00000000</t>
+          <t>40.10000000</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -9148,18 +9148,18 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
-          <t>24.70000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -9174,13 +9174,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
-          <t>0.24000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -9200,18 +9200,18 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
-          <t>3100000.00000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9226,18 +9226,18 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
         <is>
-          <t>29.70000000</t>
+          <t>455.00000000</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -9252,13 +9252,13 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>226.00000000</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -9278,13 +9278,13 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Fenóis Totais</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>255.00000000</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -9304,18 +9304,18 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>18.00000000</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9330,16 +9330,1168 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>25.50000000</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>8300000.00000000</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>59.70000000</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>618.00000000</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>26.00000000</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>0.98000000</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
           <t>6.90000000</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>40.00000000</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>287.00000000</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>35.80000000</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>21.50000000</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>20.30000000</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>0.15000000</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>38.90000000</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44438.46388888889</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>350.00000000</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>40.00000000</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0.96000000</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>26.70000000</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>40.80000000</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>58.70000000</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>605.00000000</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>5800000.00000000</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Fenóis Totais</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>0.37000000</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>21.20000000</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>29.70000000</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>0.17000000</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>22.10000000</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>253.00000000</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>309.00000000</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>34.40000000</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>QUIL03030</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44529.47777777778</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>7.20000000</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
